--- a/IRCS2-devbuild/source/test.xlsx
+++ b/IRCS2-devbuild/source/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="488">
   <si>
     <t>Items</t>
   </si>
@@ -1473,15 +1473,22 @@
   </si>
   <si>
     <t>UML_IDR</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* (#,##0)_);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0\%;-0.0\%;0\%"/>
+    <numFmt numFmtId="166" formatCode="0.0\%;-0.0\%;0\%;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1582,7 +1589,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1891,7 +1898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:U185"/>
+  <dimension ref="B1:V185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
@@ -1906,7 +1913,7 @@
     <col min="21" max="21" width="138.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21">
+    <row r="1" spans="2:22">
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1932,7 +1939,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:22">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1985,7 +1992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:22">
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2045,7 @@
         <v>-3.468534131063111E-11</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:22">
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2083,7 +2090,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:22">
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2136,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:22">
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
@@ -2171,7 +2178,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:22">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2227,7 +2234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:22">
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
@@ -2285,8 +2292,12 @@
       <c r="T11" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="12" spans="2:21">
+      <c r="U11" s="8"/>
+      <c r="V11" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -2344,8 +2355,12 @@
       <c r="T12" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="13" spans="2:21">
+      <c r="U12" s="8"/>
+      <c r="V12" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
@@ -2403,8 +2418,12 @@
       <c r="T13" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:21">
+      <c r="U13" s="8"/>
+      <c r="V13" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
@@ -2462,8 +2481,12 @@
       <c r="T14" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="15" spans="2:21">
+      <c r="U14" s="8"/>
+      <c r="V14" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2521,8 +2544,12 @@
       <c r="T15" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:21">
+      <c r="U15" s="8"/>
+      <c r="V15" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
@@ -2580,8 +2607,12 @@
       <c r="T16" s="8">
         <v>-27.8</v>
       </c>
-    </row>
-    <row r="17" spans="2:20">
+      <c r="U16" s="8"/>
+      <c r="V16" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
       <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
@@ -2639,8 +2670,12 @@
       <c r="T17" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:20">
+      <c r="U17" s="8"/>
+      <c r="V17" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
       <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
@@ -2698,8 +2733,12 @@
       <c r="T18" s="8">
         <v>-56.4</v>
       </c>
-    </row>
-    <row r="19" spans="2:20">
+      <c r="U18" s="8"/>
+      <c r="V18" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
       <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
@@ -2757,8 +2796,12 @@
       <c r="T19" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="20" spans="2:20">
+      <c r="U19" s="8"/>
+      <c r="V19" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
       <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
@@ -2816,8 +2859,12 @@
       <c r="T20" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="21" spans="2:20">
+      <c r="U20" s="8"/>
+      <c r="V20" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
       <c r="B21" s="4" t="s">
         <v>44</v>
       </c>
@@ -2875,8 +2922,12 @@
       <c r="T21" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="U21" s="8"/>
+      <c r="V21" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
       <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
@@ -2934,8 +2985,12 @@
       <c r="T22" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="23" spans="2:20">
+      <c r="U22" s="8"/>
+      <c r="V22" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
       <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
@@ -2993,8 +3048,12 @@
       <c r="T23" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:20">
+      <c r="U23" s="8"/>
+      <c r="V23" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
       <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
@@ -3052,8 +3111,12 @@
       <c r="T24" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="25" spans="2:20">
+      <c r="U24" s="8"/>
+      <c r="V24" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
       <c r="B25" s="4" t="s">
         <v>56</v>
       </c>
@@ -3111,8 +3174,12 @@
       <c r="T25" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="26" spans="2:20">
+      <c r="U25" s="8"/>
+      <c r="V25" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
       <c r="B26" s="4" t="s">
         <v>59</v>
       </c>
@@ -3170,8 +3237,12 @@
       <c r="T26" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:20">
+      <c r="U26" s="8"/>
+      <c r="V26" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
       <c r="B27" s="4" t="s">
         <v>62</v>
       </c>
@@ -3229,8 +3300,12 @@
       <c r="T27" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="28" spans="2:20">
+      <c r="U27" s="8"/>
+      <c r="V27" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
       <c r="B28" s="4" t="s">
         <v>65</v>
       </c>
@@ -3288,8 +3363,12 @@
       <c r="T28" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="29" spans="2:20">
+      <c r="U28" s="8"/>
+      <c r="V28" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
         <v>68</v>
       </c>
@@ -3347,8 +3426,12 @@
       <c r="T29" s="8">
         <v>-33</v>
       </c>
-    </row>
-    <row r="30" spans="2:20">
+      <c r="U29" s="8"/>
+      <c r="V29" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
       <c r="B30" s="4" t="s">
         <v>71</v>
       </c>
@@ -3406,8 +3489,12 @@
       <c r="T30" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:20">
+      <c r="U30" s="8"/>
+      <c r="V30" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
       <c r="B31" s="4" t="s">
         <v>74</v>
       </c>
@@ -3465,8 +3552,12 @@
       <c r="T31" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:20">
+      <c r="U31" s="8"/>
+      <c r="V31" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
       <c r="B32" s="4" t="s">
         <v>77</v>
       </c>
@@ -3524,8 +3615,12 @@
       <c r="T32" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20">
+      <c r="U32" s="8"/>
+      <c r="V32" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
         <v>77</v>
       </c>
@@ -3583,8 +3678,12 @@
       <c r="T33" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20">
+      <c r="U33" s="8"/>
+      <c r="V33" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -3642,8 +3741,12 @@
       <c r="T34" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20">
+      <c r="U34" s="8"/>
+      <c r="V34" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
         <v>82</v>
       </c>
@@ -3701,8 +3804,12 @@
       <c r="T35" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:20">
+      <c r="U35" s="8"/>
+      <c r="V35" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
       <c r="B36" s="4" t="s">
         <v>87</v>
       </c>
@@ -3760,8 +3867,12 @@
       <c r="T36" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20">
+      <c r="U36" s="8"/>
+      <c r="V36" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
       <c r="B37" s="4" t="s">
         <v>87</v>
       </c>
@@ -3819,8 +3930,12 @@
       <c r="T37" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="38" spans="2:20">
+      <c r="U37" s="8"/>
+      <c r="V37" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
       <c r="B38" s="4" t="s">
         <v>92</v>
       </c>
@@ -3878,8 +3993,12 @@
       <c r="T38" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:20">
+      <c r="U38" s="8"/>
+      <c r="V38" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22">
       <c r="B39" s="4" t="s">
         <v>92</v>
       </c>
@@ -3937,8 +4056,12 @@
       <c r="T39" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:20">
+      <c r="U39" s="8"/>
+      <c r="V39" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22">
       <c r="B40" s="4" t="s">
         <v>97</v>
       </c>
@@ -3996,8 +4119,12 @@
       <c r="T40" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="41" spans="2:20">
+      <c r="U40" s="8"/>
+      <c r="V40" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
       <c r="B41" s="4" t="s">
         <v>97</v>
       </c>
@@ -4055,8 +4182,12 @@
       <c r="T41" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20">
+      <c r="U41" s="8"/>
+      <c r="V41" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
       <c r="B42" s="4" t="s">
         <v>102</v>
       </c>
@@ -4114,8 +4245,12 @@
       <c r="T42" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20">
+      <c r="U42" s="8"/>
+      <c r="V42" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22">
       <c r="B43" s="4" t="s">
         <v>102</v>
       </c>
@@ -4173,8 +4308,12 @@
       <c r="T43" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20">
+      <c r="U43" s="8"/>
+      <c r="V43" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22">
       <c r="B44" s="4" t="s">
         <v>107</v>
       </c>
@@ -4232,8 +4371,12 @@
       <c r="T44" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20">
+      <c r="U44" s="8"/>
+      <c r="V44" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
       <c r="B45" s="4" t="s">
         <v>110</v>
       </c>
@@ -4291,8 +4434,12 @@
       <c r="T45" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20">
+      <c r="U45" s="8"/>
+      <c r="V45" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22">
       <c r="B46" s="4" t="s">
         <v>113</v>
       </c>
@@ -4350,8 +4497,12 @@
       <c r="T46" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20">
+      <c r="U46" s="8"/>
+      <c r="V46" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
       <c r="B47" s="4" t="s">
         <v>116</v>
       </c>
@@ -4409,8 +4560,12 @@
       <c r="T47" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20">
+      <c r="U47" s="8"/>
+      <c r="V47" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
       <c r="B48" s="4" t="s">
         <v>116</v>
       </c>
@@ -4468,8 +4623,12 @@
       <c r="T48" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:20">
+      <c r="U48" s="8"/>
+      <c r="V48" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22">
       <c r="B49" s="4" t="s">
         <v>121</v>
       </c>
@@ -4527,8 +4686,12 @@
       <c r="T49" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:20">
+      <c r="U49" s="8"/>
+      <c r="V49" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22">
       <c r="B50" s="4" t="s">
         <v>124</v>
       </c>
@@ -4586,8 +4749,12 @@
       <c r="T50" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:20">
+      <c r="U50" s="8"/>
+      <c r="V50" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22">
       <c r="B51" s="4" t="s">
         <v>124</v>
       </c>
@@ -4645,8 +4812,12 @@
       <c r="T51" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:20">
+      <c r="U51" s="8"/>
+      <c r="V51" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22">
       <c r="B52" s="4" t="s">
         <v>129</v>
       </c>
@@ -4704,8 +4875,12 @@
       <c r="T52" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:20">
+      <c r="U52" s="8"/>
+      <c r="V52" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22">
       <c r="B53" s="4" t="s">
         <v>132</v>
       </c>
@@ -4763,8 +4938,12 @@
       <c r="T53" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="54" spans="2:20">
+      <c r="U53" s="8"/>
+      <c r="V53" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22">
       <c r="B54" s="4" t="s">
         <v>132</v>
       </c>
@@ -4822,8 +5001,12 @@
       <c r="T54" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:20">
+      <c r="U54" s="8"/>
+      <c r="V54" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22">
       <c r="B55" s="4" t="s">
         <v>137</v>
       </c>
@@ -4881,8 +5064,12 @@
       <c r="T55" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:20">
+      <c r="U55" s="8"/>
+      <c r="V55" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22">
       <c r="B56" s="4" t="s">
         <v>137</v>
       </c>
@@ -4940,8 +5127,12 @@
       <c r="T56" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="57" spans="2:20">
+      <c r="U56" s="8"/>
+      <c r="V56" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22">
       <c r="B57" s="4" t="s">
         <v>142</v>
       </c>
@@ -4999,8 +5190,12 @@
       <c r="T57" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="58" spans="2:20">
+      <c r="U57" s="8"/>
+      <c r="V57" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22">
       <c r="B58" s="4" t="s">
         <v>145</v>
       </c>
@@ -5058,8 +5253,12 @@
       <c r="T58" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="59" spans="2:20">
+      <c r="U58" s="8"/>
+      <c r="V58" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22">
       <c r="B59" s="4" t="s">
         <v>145</v>
       </c>
@@ -5117,8 +5316,12 @@
       <c r="T59" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="60" spans="2:20">
+      <c r="U59" s="8"/>
+      <c r="V59" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22">
       <c r="B60" s="4" t="s">
         <v>150</v>
       </c>
@@ -5176,8 +5379,12 @@
       <c r="T60" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:20">
+      <c r="U60" s="8"/>
+      <c r="V60" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22">
       <c r="B61" s="4" t="s">
         <v>150</v>
       </c>
@@ -5235,8 +5442,12 @@
       <c r="T61" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="62" spans="2:20">
+      <c r="U61" s="8"/>
+      <c r="V61" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22">
       <c r="B62" s="4" t="s">
         <v>155</v>
       </c>
@@ -5294,8 +5505,12 @@
       <c r="T62" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:20">
+      <c r="U62" s="8"/>
+      <c r="V62" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22">
       <c r="B63" s="4" t="s">
         <v>155</v>
       </c>
@@ -5353,8 +5568,12 @@
       <c r="T63" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:20">
+      <c r="U63" s="8"/>
+      <c r="V63" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22">
       <c r="B64" s="4" t="s">
         <v>160</v>
       </c>
@@ -5412,8 +5631,12 @@
       <c r="T64" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20">
+      <c r="U64" s="8"/>
+      <c r="V64" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22">
       <c r="B65" s="4" t="s">
         <v>160</v>
       </c>
@@ -5471,8 +5694,12 @@
       <c r="T65" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20">
+      <c r="U65" s="8"/>
+      <c r="V65" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22">
       <c r="B66" s="4" t="s">
         <v>165</v>
       </c>
@@ -5530,8 +5757,12 @@
       <c r="T66" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="67" spans="2:20">
+      <c r="U66" s="8"/>
+      <c r="V66" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22">
       <c r="B67" s="4" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
@@ -5591,8 +5822,12 @@
       <c r="T67" s="8">
         <v>-100</v>
       </c>
-    </row>
-    <row r="68" spans="2:20">
+      <c r="U67" s="8"/>
+      <c r="V67" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22">
       <c r="B68" s="4" t="s">
         <v>169</v>
       </c>
@@ -5650,8 +5885,12 @@
       <c r="T68" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20">
+      <c r="U68" s="8"/>
+      <c r="V68" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22">
       <c r="B69" s="4" t="s">
         <v>169</v>
       </c>
@@ -5709,8 +5948,12 @@
       <c r="T69" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20">
+      <c r="U69" s="8"/>
+      <c r="V69" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22">
       <c r="B70" s="4" t="s">
         <v>174</v>
       </c>
@@ -5768,8 +6011,12 @@
       <c r="T70" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20">
+      <c r="U70" s="8"/>
+      <c r="V70" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22">
       <c r="B71" s="4" t="s">
         <v>174</v>
       </c>
@@ -5827,8 +6074,12 @@
       <c r="T71" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20">
+      <c r="U71" s="8"/>
+      <c r="V71" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22">
       <c r="B72" s="4" t="s">
         <v>179</v>
       </c>
@@ -5886,8 +6137,12 @@
       <c r="T72" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20">
+      <c r="U72" s="8"/>
+      <c r="V72" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22">
       <c r="B73" s="4" t="s">
         <v>179</v>
       </c>
@@ -5945,8 +6200,12 @@
       <c r="T73" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20">
+      <c r="U73" s="8"/>
+      <c r="V73" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22">
       <c r="B74" s="4" t="s">
         <v>184</v>
       </c>
@@ -6004,8 +6263,12 @@
       <c r="T74" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20">
+      <c r="U74" s="8"/>
+      <c r="V74" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22">
       <c r="B75" s="4" t="s">
         <v>187</v>
       </c>
@@ -6063,8 +6326,12 @@
       <c r="T75" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20">
+      <c r="U75" s="8"/>
+      <c r="V75" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22">
       <c r="B76" s="4" t="s">
         <v>187</v>
       </c>
@@ -6122,8 +6389,12 @@
       <c r="T76" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="77" spans="2:20">
+      <c r="U76" s="8"/>
+      <c r="V76" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22">
       <c r="B77" s="4" t="s">
         <v>192</v>
       </c>
@@ -6181,8 +6452,12 @@
       <c r="T77" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="78" spans="2:20">
+      <c r="U77" s="8"/>
+      <c r="V77" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22">
       <c r="B78" s="4" t="s">
         <v>192</v>
       </c>
@@ -6240,8 +6515,12 @@
       <c r="T78" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20">
+      <c r="U78" s="8"/>
+      <c r="V78" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22">
       <c r="B79" s="4" t="s">
         <v>197</v>
       </c>
@@ -6299,8 +6578,12 @@
       <c r="T79" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="80" spans="2:20">
+      <c r="U79" s="8"/>
+      <c r="V79" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22">
       <c r="B80" s="4" t="s">
         <v>197</v>
       </c>
@@ -6358,8 +6641,12 @@
       <c r="T80" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="81" spans="2:20">
+      <c r="U80" s="8"/>
+      <c r="V80" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="81" spans="2:22">
       <c r="B81" s="4" t="s">
         <v>202</v>
       </c>
@@ -6417,8 +6704,12 @@
       <c r="T81" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="82" spans="2:20">
+      <c r="U81" s="8"/>
+      <c r="V81" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="82" spans="2:22">
       <c r="B82" s="4" t="s">
         <v>202</v>
       </c>
@@ -6476,8 +6767,12 @@
       <c r="T82" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="83" spans="2:20">
+      <c r="U82" s="8"/>
+      <c r="V82" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="83" spans="2:22">
       <c r="B83" s="4" t="s">
         <v>207</v>
       </c>
@@ -6535,8 +6830,12 @@
       <c r="T83" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:20">
+      <c r="U83" s="8"/>
+      <c r="V83" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="84" spans="2:22">
       <c r="B84" s="4" t="s">
         <v>207</v>
       </c>
@@ -6594,8 +6893,12 @@
       <c r="T84" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:20">
+      <c r="U84" s="8"/>
+      <c r="V84" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22">
       <c r="B85" s="4" t="s">
         <v>212</v>
       </c>
@@ -6653,8 +6956,12 @@
       <c r="T85" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:20">
+      <c r="U85" s="8"/>
+      <c r="V85" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22">
       <c r="B86" s="4" t="s">
         <v>215</v>
       </c>
@@ -6712,8 +7019,12 @@
       <c r="T86" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="87" spans="2:20">
+      <c r="U86" s="8"/>
+      <c r="V86" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="87" spans="2:22">
       <c r="B87" s="4" t="s">
         <v>218</v>
       </c>
@@ -6771,8 +7082,12 @@
       <c r="T87" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:20">
+      <c r="U87" s="8"/>
+      <c r="V87" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="88" spans="2:22">
       <c r="B88" s="4" t="s">
         <v>221</v>
       </c>
@@ -6830,8 +7145,12 @@
       <c r="T88" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="89" spans="2:20">
+      <c r="U88" s="8"/>
+      <c r="V88" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22">
       <c r="B89" s="4" t="s">
         <v>221</v>
       </c>
@@ -6889,8 +7208,12 @@
       <c r="T89" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:20">
+      <c r="U89" s="8"/>
+      <c r="V89" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22">
       <c r="B90" s="4" t="s">
         <v>226</v>
       </c>
@@ -6948,8 +7271,12 @@
       <c r="T90" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="91" spans="2:20">
+      <c r="U90" s="8"/>
+      <c r="V90" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22">
       <c r="B91" s="4" t="s">
         <v>229</v>
       </c>
@@ -7007,8 +7334,12 @@
       <c r="T91" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:20">
+      <c r="U91" s="8"/>
+      <c r="V91" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22">
       <c r="B92" s="4" t="s">
         <v>229</v>
       </c>
@@ -7066,8 +7397,12 @@
       <c r="T92" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:20">
+      <c r="U92" s="8"/>
+      <c r="V92" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22">
       <c r="B93" s="4" t="s">
         <v>234</v>
       </c>
@@ -7125,8 +7460,12 @@
       <c r="T93" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="94" spans="2:20">
+      <c r="U93" s="8"/>
+      <c r="V93" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22">
       <c r="B94" s="4" t="s">
         <v>234</v>
       </c>
@@ -7184,8 +7523,12 @@
       <c r="T94" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="95" spans="2:20">
+      <c r="U94" s="8"/>
+      <c r="V94" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22">
       <c r="B95" s="4" t="s">
         <v>239</v>
       </c>
@@ -7243,8 +7586,12 @@
       <c r="T95" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="96" spans="2:20">
+      <c r="U95" s="8"/>
+      <c r="V95" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22">
       <c r="B96" s="4" t="s">
         <v>242</v>
       </c>
@@ -7302,8 +7649,12 @@
       <c r="T96" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:20">
+      <c r="U96" s="8"/>
+      <c r="V96" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="97" spans="2:22">
       <c r="B97" s="4" t="s">
         <v>245</v>
       </c>
@@ -7361,8 +7712,12 @@
       <c r="T97" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="98" spans="2:20">
+      <c r="U97" s="8"/>
+      <c r="V97" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="98" spans="2:22">
       <c r="B98" s="4" t="s">
         <v>245</v>
       </c>
@@ -7420,8 +7775,12 @@
       <c r="T98" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:20">
+      <c r="U98" s="8"/>
+      <c r="V98" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="99" spans="2:22">
       <c r="B99" s="4" t="s">
         <v>250</v>
       </c>
@@ -7479,8 +7838,12 @@
       <c r="T99" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="100" spans="2:20">
+      <c r="U99" s="8"/>
+      <c r="V99" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="100" spans="2:22">
       <c r="B100" s="4" t="s">
         <v>250</v>
       </c>
@@ -7538,8 +7901,12 @@
       <c r="T100" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:20">
+      <c r="U100" s="8"/>
+      <c r="V100" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="101" spans="2:22">
       <c r="B101" s="4" t="s">
         <v>255</v>
       </c>
@@ -7597,8 +7964,12 @@
       <c r="T101" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="2:20">
+      <c r="U101" s="8"/>
+      <c r="V101" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="102" spans="2:22">
       <c r="B102" s="4" t="s">
         <v>258</v>
       </c>
@@ -7656,8 +8027,12 @@
       <c r="T102" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="103" spans="2:20">
+      <c r="U102" s="8"/>
+      <c r="V102" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="103" spans="2:22">
       <c r="B103" s="4" t="s">
         <v>258</v>
       </c>
@@ -7715,8 +8090,12 @@
       <c r="T103" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="104" spans="2:20">
+      <c r="U103" s="8"/>
+      <c r="V103" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22">
       <c r="B104" s="4" t="s">
         <v>263</v>
       </c>
@@ -7774,8 +8153,12 @@
       <c r="T104" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="105" spans="2:20">
+      <c r="U104" s="8"/>
+      <c r="V104" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="105" spans="2:22">
       <c r="B105" s="4" t="s">
         <v>263</v>
       </c>
@@ -7833,8 +8216,12 @@
       <c r="T105" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="106" spans="2:20">
+      <c r="U105" s="8"/>
+      <c r="V105" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="106" spans="2:22">
       <c r="B106" s="4" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
@@ -7894,8 +8281,12 @@
       <c r="T106" s="8">
         <v>-100</v>
       </c>
-    </row>
-    <row r="107" spans="2:20">
+      <c r="U106" s="8"/>
+      <c r="V106" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="107" spans="2:22">
       <c r="B107" s="4" t="s">
         <v>269</v>
       </c>
@@ -7953,8 +8344,12 @@
       <c r="T107" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="2:20">
+      <c r="U107" s="8"/>
+      <c r="V107" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="108" spans="2:22">
       <c r="B108" s="4" t="s">
         <v>269</v>
       </c>
@@ -8012,8 +8407,12 @@
       <c r="T108" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:20">
+      <c r="U108" s="8"/>
+      <c r="V108" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="109" spans="2:22">
       <c r="B109" s="4" t="s">
         <v>274</v>
       </c>
@@ -8071,8 +8470,12 @@
       <c r="T109" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:20">
+      <c r="U109" s="8"/>
+      <c r="V109" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="110" spans="2:22">
       <c r="B110" s="4" t="s">
         <v>274</v>
       </c>
@@ -8130,8 +8533,12 @@
       <c r="T110" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:20">
+      <c r="U110" s="8"/>
+      <c r="V110" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="111" spans="2:22">
       <c r="B111" s="4" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
@@ -8191,8 +8598,12 @@
       <c r="T111" s="8">
         <v>-100</v>
       </c>
-    </row>
-    <row r="112" spans="2:20">
+      <c r="U111" s="8"/>
+      <c r="V111" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="112" spans="2:22">
       <c r="B112" s="4" t="s">
         <v>280</v>
       </c>
@@ -8250,8 +8661,12 @@
       <c r="T112" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="113" spans="2:20">
+      <c r="U112" s="8"/>
+      <c r="V112" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="113" spans="2:22">
       <c r="B113" s="4" t="s">
         <v>283</v>
       </c>
@@ -8309,8 +8724,12 @@
       <c r="T113" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:20">
+      <c r="U113" s="8"/>
+      <c r="V113" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="114" spans="2:22">
       <c r="B114" s="4" t="s">
         <v>286</v>
       </c>
@@ -8368,8 +8787,12 @@
       <c r="T114" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="115" spans="2:20">
+      <c r="U114" s="8"/>
+      <c r="V114" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="115" spans="2:22">
       <c r="B115" s="4" t="s">
         <v>289</v>
       </c>
@@ -8427,8 +8850,12 @@
       <c r="T115" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="116" spans="2:20">
+      <c r="U115" s="8"/>
+      <c r="V115" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="116" spans="2:22">
       <c r="B116" s="4" t="s">
         <v>289</v>
       </c>
@@ -8486,8 +8913,12 @@
       <c r="T116" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="117" spans="2:20">
+      <c r="U116" s="8"/>
+      <c r="V116" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="117" spans="2:22">
       <c r="B117" s="4" t="s">
         <v>294</v>
       </c>
@@ -8545,8 +8976,12 @@
       <c r="T117" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:20">
+      <c r="U117" s="8"/>
+      <c r="V117" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="118" spans="2:22">
       <c r="B118" s="4" t="s">
         <v>297</v>
       </c>
@@ -8604,8 +9039,12 @@
       <c r="T118" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:20">
+      <c r="U118" s="8"/>
+      <c r="V118" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="119" spans="2:22">
       <c r="B119" s="4" t="s">
         <v>300</v>
       </c>
@@ -8663,8 +9102,12 @@
       <c r="T119" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="120" spans="2:20">
+      <c r="U119" s="8"/>
+      <c r="V119" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="120" spans="2:22">
       <c r="B120" s="4" t="s">
         <v>300</v>
       </c>
@@ -8722,8 +9165,12 @@
       <c r="T120" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:20">
+      <c r="U120" s="8"/>
+      <c r="V120" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="121" spans="2:22">
       <c r="B121" s="4" t="s">
         <v>305</v>
       </c>
@@ -8781,8 +9228,12 @@
       <c r="T121" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="2:20">
+      <c r="U121" s="8"/>
+      <c r="V121" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="122" spans="2:22">
       <c r="B122" s="4" t="s">
         <v>308</v>
       </c>
@@ -8840,8 +9291,12 @@
       <c r="T122" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:20">
+      <c r="U122" s="8"/>
+      <c r="V122" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="123" spans="2:22">
       <c r="B123" s="4" t="s">
         <v>311</v>
       </c>
@@ -8899,8 +9354,12 @@
       <c r="T123" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="2:20">
+      <c r="U123" s="8"/>
+      <c r="V123" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="124" spans="2:22">
       <c r="B124" s="4" t="s">
         <v>314</v>
       </c>
@@ -8958,8 +9417,12 @@
       <c r="T124" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:20">
+      <c r="U124" s="8"/>
+      <c r="V124" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="125" spans="2:22">
       <c r="B125" s="4" t="s">
         <v>317</v>
       </c>
@@ -9017,8 +9480,12 @@
       <c r="T125" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:20">
+      <c r="U125" s="8"/>
+      <c r="V125" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="126" spans="2:22">
       <c r="B126" s="4" t="s">
         <v>320</v>
       </c>
@@ -9076,8 +9543,12 @@
       <c r="T126" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="127" spans="2:20">
+      <c r="U126" s="8"/>
+      <c r="V126" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="127" spans="2:22">
       <c r="B127" s="4" t="s">
         <v>320</v>
       </c>
@@ -9135,8 +9606,12 @@
       <c r="T127" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="128" spans="2:20">
+      <c r="U127" s="8"/>
+      <c r="V127" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="128" spans="2:22">
       <c r="B128" s="4" t="s">
         <v>325</v>
       </c>
@@ -9194,8 +9669,12 @@
       <c r="T128" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="2:20">
+      <c r="U128" s="8"/>
+      <c r="V128" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="129" spans="2:22">
       <c r="B129" s="4" t="s">
         <v>328</v>
       </c>
@@ -9253,8 +9732,12 @@
       <c r="T129" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="2:20">
+      <c r="U129" s="8"/>
+      <c r="V129" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="130" spans="2:22">
       <c r="B130" s="4" t="s">
         <v>328</v>
       </c>
@@ -9312,8 +9795,12 @@
       <c r="T130" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="2:20">
+      <c r="U130" s="8"/>
+      <c r="V130" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="131" spans="2:22">
       <c r="B131" s="4" t="s">
         <v>333</v>
       </c>
@@ -9371,8 +9858,12 @@
       <c r="T131" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="132" spans="2:20">
+      <c r="U131" s="8"/>
+      <c r="V131" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="132" spans="2:22">
       <c r="B132" s="4" t="s">
         <v>336</v>
       </c>
@@ -9430,8 +9921,12 @@
       <c r="T132" s="8">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="133" spans="2:20">
+      <c r="U132" s="8"/>
+      <c r="V132" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="133" spans="2:22">
       <c r="B133" s="4" t="s">
         <v>339</v>
       </c>
@@ -9489,8 +9984,12 @@
       <c r="T133" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="2:20">
+      <c r="U133" s="8"/>
+      <c r="V133" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="134" spans="2:22">
       <c r="B134" s="4" t="s">
         <v>342</v>
       </c>
@@ -9548,8 +10047,12 @@
       <c r="T134" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="135" spans="2:20">
+      <c r="U134" s="8"/>
+      <c r="V134" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="135" spans="2:22">
       <c r="B135" s="4" t="s">
         <v>345</v>
       </c>
@@ -9607,8 +10110,12 @@
       <c r="T135" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="136" spans="2:20">
+      <c r="U135" s="8"/>
+      <c r="V135" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="136" spans="2:22">
       <c r="B136" s="4" t="s">
         <v>348</v>
       </c>
@@ -9666,8 +10173,12 @@
       <c r="T136" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="137" spans="2:20">
+      <c r="U136" s="8"/>
+      <c r="V136" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="137" spans="2:22">
       <c r="B137" s="4" t="s">
         <v>351</v>
       </c>
@@ -9725,8 +10236,12 @@
       <c r="T137" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="138" spans="2:20">
+      <c r="U137" s="8"/>
+      <c r="V137" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="138" spans="2:22">
       <c r="B138" s="4" t="s">
         <v>351</v>
       </c>
@@ -9784,8 +10299,12 @@
       <c r="T138" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="139" spans="2:20">
+      <c r="U138" s="8"/>
+      <c r="V138" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="139" spans="2:22">
       <c r="B139" s="4" t="s">
         <v>356</v>
       </c>
@@ -9843,8 +10362,12 @@
       <c r="T139" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="2:20">
+      <c r="U139" s="8"/>
+      <c r="V139" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="140" spans="2:22">
       <c r="B140" s="4" t="s">
         <v>359</v>
       </c>
@@ -9902,8 +10425,12 @@
       <c r="T140" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="141" spans="2:20">
+      <c r="U140" s="8"/>
+      <c r="V140" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="141" spans="2:22">
       <c r="B141" s="4" t="s">
         <v>362</v>
       </c>
@@ -9961,8 +10488,12 @@
       <c r="T141" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="142" spans="2:20">
+      <c r="U141" s="8"/>
+      <c r="V141" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="142" spans="2:22">
       <c r="B142" s="4" t="s">
         <v>365</v>
       </c>
@@ -10020,8 +10551,12 @@
       <c r="T142" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="143" spans="2:20">
+      <c r="U142" s="8"/>
+      <c r="V142" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="143" spans="2:22">
       <c r="B143" s="4" t="s">
         <v>368</v>
       </c>
@@ -10079,8 +10614,12 @@
       <c r="T143" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="144" spans="2:20">
+      <c r="U143" s="8"/>
+      <c r="V143" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="144" spans="2:22">
       <c r="B144" s="4" t="s">
         <v>368</v>
       </c>
@@ -10138,8 +10677,12 @@
       <c r="T144" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="145" spans="2:20">
+      <c r="U144" s="8"/>
+      <c r="V144" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="145" spans="2:22">
       <c r="B145" s="4" t="s">
         <v>373</v>
       </c>
@@ -10197,8 +10740,12 @@
       <c r="T145" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="146" spans="2:20">
+      <c r="U145" s="8"/>
+      <c r="V145" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="146" spans="2:22">
       <c r="B146" s="4" t="s">
         <v>373</v>
       </c>
@@ -10256,8 +10803,12 @@
       <c r="T146" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="2:20">
+      <c r="U146" s="8"/>
+      <c r="V146" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="147" spans="2:22">
       <c r="B147" s="4" t="s">
         <v>378</v>
       </c>
@@ -10315,8 +10866,12 @@
       <c r="T147" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="148" spans="2:20">
+      <c r="U147" s="8"/>
+      <c r="V147" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="148" spans="2:22">
       <c r="B148" s="4" t="s">
         <v>378</v>
       </c>
@@ -10374,8 +10929,12 @@
       <c r="T148" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="149" spans="2:20">
+      <c r="U148" s="8"/>
+      <c r="V148" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="149" spans="2:22">
       <c r="B149" s="4" t="s">
         <v>383</v>
       </c>
@@ -10433,8 +10992,12 @@
       <c r="T149" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="2:20">
+      <c r="U149" s="8"/>
+      <c r="V149" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="150" spans="2:22">
       <c r="B150" s="4" t="s">
         <v>386</v>
       </c>
@@ -10492,8 +11055,12 @@
       <c r="T150" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="151" spans="2:20">
+      <c r="U150" s="8"/>
+      <c r="V150" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="151" spans="2:22">
       <c r="B151" s="4" t="s">
         <v>389</v>
       </c>
@@ -10551,8 +11118,12 @@
       <c r="T151" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="2:20">
+      <c r="U151" s="8"/>
+      <c r="V151" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="152" spans="2:22">
       <c r="B152" s="4" t="s">
         <v>392</v>
       </c>
@@ -10610,8 +11181,12 @@
       <c r="T152" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="2:20">
+      <c r="U152" s="8"/>
+      <c r="V152" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="153" spans="2:22">
       <c r="B153" s="4" t="s">
         <v>395</v>
       </c>
@@ -10669,8 +11244,12 @@
       <c r="T153" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="2:20">
+      <c r="U153" s="8"/>
+      <c r="V153" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="154" spans="2:22">
       <c r="B154" s="4" t="s">
         <v>398</v>
       </c>
@@ -10728,8 +11307,12 @@
       <c r="T154" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="155" spans="2:20">
+      <c r="U154" s="8"/>
+      <c r="V154" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="155" spans="2:22">
       <c r="B155" s="4" t="s">
         <v>401</v>
       </c>
@@ -10787,8 +11370,12 @@
       <c r="T155" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="2:20">
+      <c r="U155" s="8"/>
+      <c r="V155" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="156" spans="2:22">
       <c r="B156" s="4" t="s">
         <v>401</v>
       </c>
@@ -10846,8 +11433,12 @@
       <c r="T156" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="157" spans="2:20">
+      <c r="U156" s="8"/>
+      <c r="V156" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="157" spans="2:22">
       <c r="B157" s="4" t="s">
         <v>406</v>
       </c>
@@ -10905,8 +11496,12 @@
       <c r="T157" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="158" spans="2:20">
+      <c r="U157" s="8"/>
+      <c r="V157" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="158" spans="2:22">
       <c r="B158" s="4" t="s">
         <v>406</v>
       </c>
@@ -10964,8 +11559,12 @@
       <c r="T158" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="2:20">
+      <c r="U158" s="8"/>
+      <c r="V158" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="159" spans="2:22">
       <c r="B159" s="4" t="s">
         <v>411</v>
       </c>
@@ -11023,8 +11622,12 @@
       <c r="T159" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="2:20">
+      <c r="U159" s="8"/>
+      <c r="V159" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="160" spans="2:22">
       <c r="B160" s="4" t="s">
         <v>414</v>
       </c>
@@ -11082,8 +11685,12 @@
       <c r="T160" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="161" spans="2:20">
+      <c r="U160" s="8"/>
+      <c r="V160" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="161" spans="2:22">
       <c r="B161" s="4" t="s">
         <v>417</v>
       </c>
@@ -11141,8 +11748,12 @@
       <c r="T161" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="2:20">
+      <c r="U161" s="8"/>
+      <c r="V161" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="162" spans="2:22">
       <c r="B162" s="4" t="s">
         <v>420</v>
       </c>
@@ -11200,8 +11811,12 @@
       <c r="T162" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="163" spans="2:20">
+      <c r="U162" s="8"/>
+      <c r="V162" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="163" spans="2:22">
       <c r="B163" s="4" t="s">
         <v>423</v>
       </c>
@@ -11259,8 +11874,12 @@
       <c r="T163" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="164" spans="2:20">
+      <c r="U163" s="8"/>
+      <c r="V163" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="164" spans="2:22">
       <c r="B164" s="4" t="s">
         <v>426</v>
       </c>
@@ -11318,8 +11937,12 @@
       <c r="T164" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="165" spans="2:20">
+      <c r="U164" s="8"/>
+      <c r="V164" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="165" spans="2:22">
       <c r="B165" s="4" t="s">
         <v>426</v>
       </c>
@@ -11377,8 +12000,12 @@
       <c r="T165" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="2:20">
+      <c r="U165" s="8"/>
+      <c r="V165" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="166" spans="2:22">
       <c r="B166" s="4" t="s">
         <v>431</v>
       </c>
@@ -11436,8 +12063,12 @@
       <c r="T166" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="2:20">
+      <c r="U166" s="8"/>
+      <c r="V166" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="167" spans="2:22">
       <c r="B167" s="4" t="s">
         <v>434</v>
       </c>
@@ -11495,8 +12126,12 @@
       <c r="T167" s="8">
         <v>-72.90000000000001</v>
       </c>
-    </row>
-    <row r="168" spans="2:20">
+      <c r="U167" s="8"/>
+      <c r="V167" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="168" spans="2:22">
       <c r="B168" s="4" t="s">
         <v>437</v>
       </c>
@@ -11554,8 +12189,12 @@
       <c r="T168" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="2:20">
+      <c r="U168" s="8"/>
+      <c r="V168" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="169" spans="2:22">
       <c r="B169" s="4" t="s">
         <v>440</v>
       </c>
@@ -11613,8 +12252,12 @@
       <c r="T169" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="170" spans="2:20">
+      <c r="U169" s="8"/>
+      <c r="V169" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="170" spans="2:22">
       <c r="B170" s="4" t="s">
         <v>443</v>
       </c>
@@ -11672,8 +12315,12 @@
       <c r="T170" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="2:20">
+      <c r="U170" s="8"/>
+      <c r="V170" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="171" spans="2:22">
       <c r="B171" s="4" t="s">
         <v>446</v>
       </c>
@@ -11731,8 +12378,12 @@
       <c r="T171" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="172" spans="2:20">
+      <c r="U171" s="8"/>
+      <c r="V171" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="172" spans="2:22">
       <c r="B172" s="4" t="s">
         <v>446</v>
       </c>
@@ -11790,8 +12441,12 @@
       <c r="T172" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="2:20">
+      <c r="U172" s="8"/>
+      <c r="V172" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="173" spans="2:22">
       <c r="B173" s="4" t="s">
         <v>451</v>
       </c>
@@ -11849,8 +12504,12 @@
       <c r="T173" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="174" spans="2:20">
+      <c r="U173" s="8"/>
+      <c r="V173" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="174" spans="2:22">
       <c r="B174" s="4" t="s">
         <v>454</v>
       </c>
@@ -11908,8 +12567,12 @@
       <c r="T174" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="2:20">
+      <c r="U174" s="8"/>
+      <c r="V174" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="175" spans="2:22">
       <c r="B175" s="4" t="s">
         <v>457</v>
       </c>
@@ -11967,8 +12630,12 @@
       <c r="T175" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="176" spans="2:20">
+      <c r="U175" s="8"/>
+      <c r="V175" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="176" spans="2:22">
       <c r="B176" s="4" t="s">
         <v>460</v>
       </c>
@@ -12026,8 +12693,12 @@
       <c r="T176" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="2:20">
+      <c r="U176" s="8"/>
+      <c r="V176" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="177" spans="2:22">
       <c r="B177" s="4" t="s">
         <v>463</v>
       </c>
@@ -12085,8 +12756,12 @@
       <c r="T177" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="2:20">
+      <c r="U177" s="8"/>
+      <c r="V177" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="178" spans="2:22">
       <c r="B178" s="4" t="s">
         <v>466</v>
       </c>
@@ -12144,8 +12819,12 @@
       <c r="T178" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="179" spans="2:20">
+      <c r="U178" s="8"/>
+      <c r="V178" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="179" spans="2:22">
       <c r="B179" s="4" t="s">
         <v>469</v>
       </c>
@@ -12203,8 +12882,12 @@
       <c r="T179" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="180" spans="2:20">
+      <c r="U179" s="8"/>
+      <c r="V179" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="180" spans="2:22">
       <c r="B180" s="4" t="s">
         <v>472</v>
       </c>
@@ -12262,8 +12945,12 @@
       <c r="T180" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="181" spans="2:20">
+      <c r="U180" s="8"/>
+      <c r="V180" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="181" spans="2:22">
       <c r="B181" s="4" t="s">
         <v>475</v>
       </c>
@@ -12321,8 +13008,12 @@
       <c r="T181" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="2:20">
+      <c r="U181" s="8"/>
+      <c r="V181" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="182" spans="2:22">
       <c r="B182" s="4" t="s">
         <v>478</v>
       </c>
@@ -12380,8 +13071,12 @@
       <c r="T182" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="2:20">
+      <c r="U182" s="8"/>
+      <c r="V182" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="183" spans="2:22">
       <c r="B183" s="4" t="s">
         <v>478</v>
       </c>
@@ -12439,8 +13134,12 @@
       <c r="T183" s="8">
         <v>-0</v>
       </c>
-    </row>
-    <row r="184" spans="2:20">
+      <c r="U183" s="8"/>
+      <c r="V183" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="184" spans="2:22">
       <c r="B184" s="4" t="s">
         <v>481</v>
       </c>
@@ -12498,8 +13197,12 @@
       <c r="T184" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="2:20">
+      <c r="U184" s="8"/>
+      <c r="V184" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="185" spans="2:22">
       <c r="B185" s="4" t="s">
         <v>483</v>
       </c>
@@ -12556,6 +13259,10 @@
       </c>
       <c r="T185" s="8">
         <v>-0</v>
+      </c>
+      <c r="U185" s="8"/>
+      <c r="V185" s="8" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/IRCS2-devbuild/source/test.xlsx
+++ b/IRCS2-devbuild/source/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="491">
   <si>
     <t>Items</t>
   </si>
@@ -1479,6 +1479,15 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>Grouping</t>
+  </si>
+  <si>
+    <t>UL_IDR</t>
+  </si>
+  <si>
+    <t>UL_USD</t>
   </si>
 </sst>
 </file>
@@ -13294,17 +13303,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:S3"/>
+  <dimension ref="B2:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="18" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" customWidth="1"/>
+    <col min="3" max="18" width="23.7109375" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19">
+    <row r="2" spans="2:19">
+      <c r="B2" s="9" t="s">
+        <v>488</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -13333,7 +13345,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="3:19">
+    <row r="3" spans="2:19">
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -13384,14 +13397,134 @@
       </c>
       <c r="S3" s="9"/>
     </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="4">
+        <v>692991</v>
+      </c>
+      <c r="D4" s="4">
+        <v>11805853591983.16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>217697314758240.2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>13875610295239.78</v>
+      </c>
+      <c r="G4" s="4">
+        <v>696400</v>
+      </c>
+      <c r="H4" s="4">
+        <v>11923781838617.36</v>
+      </c>
+      <c r="I4" s="4">
+        <v>218913632365850.2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>13917077488107.32</v>
+      </c>
+      <c r="K4" s="4">
+        <v>-3409</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-117928246634.2052</v>
+      </c>
+      <c r="M4" s="4">
+        <v>-1216317607610</v>
+      </c>
+      <c r="N4" s="4">
+        <v>-41467192867.53465</v>
+      </c>
+      <c r="O4" s="8">
+        <f>IFERROR(round(K4/G4 * 100, 1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <f>IFERROR(round(L4/H4 * 100, 1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>IFERROR(round(M4/I4 * 100, 1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <f>IFERROR(round(N4/J4 * 100, 1),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9222</v>
+      </c>
+      <c r="D5" s="4">
+        <v>73416089.39</v>
+      </c>
+      <c r="E5" s="4">
+        <v>875620109.1160001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>287925652.9790439</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9222</v>
+      </c>
+      <c r="H5" s="4">
+        <v>73416089.39</v>
+      </c>
+      <c r="I5" s="4">
+        <v>875620109.1160001</v>
+      </c>
+      <c r="J5" s="4">
+        <v>287925652.6236017</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.3554421301923867</v>
+      </c>
+      <c r="O5" s="8">
+        <f>IFERROR(round(K5/G5 * 100, 1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <f>IFERROR(round(L5/H5 * 100, 1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>IFERROR(round(M5/I5 * 100, 1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <f>IFERROR(round(N5/J5 * 100, 1),0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:S3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
+  <conditionalFormatting sqref="O4:R999">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IRCS2-devbuild/source/test.xlsx
+++ b/IRCS2-devbuild/source/test.xlsx
@@ -2042,16 +2042,20 @@
         <v>-41467192867.17773</v>
       </c>
       <c r="Q3" s="5">
-        <v>-0.0006649683819707874</v>
+        <f>IFERROR(round(M4/I4 * 100, 1),0)</f>
+        <v>0</v>
       </c>
       <c r="R3" s="5">
-        <v>-2.269549213464004E-12</v>
+        <f>IFERROR(round(N4/J4 * 100, 1),0)</f>
+        <v>0</v>
       </c>
       <c r="S3" s="5">
-        <v>-4.238386091373726E-11</v>
+        <f>IFERROR(round(O4/K4 * 100, 1),0)</f>
+        <v>0</v>
       </c>
       <c r="T3" s="5">
-        <v>-3.468534131063111E-11</v>
+        <f>IFERROR(round(P4/L4 * 100, 1),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:22">

--- a/IRCS2-devbuild/source/test.xlsx
+++ b/IRCS2-devbuild/source/test.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Summary_Checking_UL" sheetId="1" r:id="rId1"/>
-    <sheet name="CONTROL_2_SUMMARY" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary_Checking_TRAD" sheetId="2" r:id="rId2"/>
+    <sheet name="CONTROL_2_SUMMARY" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="492">
   <si>
     <t>Items</t>
   </si>
@@ -1479,6 +1480,9 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>AZTRAD</t>
   </si>
   <si>
     <t>Grouping</t>
@@ -1583,7 +1587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1599,6 +1603,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13307,6 +13312,267 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:U10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="20" width="25.7109375" customWidth="1"/>
+    <col min="21" max="21" width="138.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="2:21">
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>470770</v>
+      </c>
+      <c r="F3" s="4">
+        <v>99452485915085.8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4425262287171.684</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>467368</v>
+      </c>
+      <c r="J3" s="4">
+        <v>95679515934153</v>
+      </c>
+      <c r="K3" s="4">
+        <v>4308204442004.65</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>3402</v>
+      </c>
+      <c r="N3" s="4">
+        <v>3772969980932.797</v>
+      </c>
+      <c r="O3" s="4">
+        <v>117057845167.0332</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="D6" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="Q9:T9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13318,8 +13584,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="9" t="s">
-        <v>488</v>
+      <c r="B2" s="10" t="s">
+        <v>489</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -13345,12 +13611,12 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -13399,11 +13665,11 @@
       <c r="R3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="9"/>
+      <c r="S3" s="10"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C4" s="4">
         <v>692991</v>
@@ -13460,7 +13726,7 @@
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C5" s="4">
         <v>9222</v>

--- a/IRCS2-devbuild/source/test.xlsx
+++ b/IRCS2-devbuild/source/test.xlsx
@@ -13422,26 +13422,14 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
-        <v>467368</v>
-      </c>
-      <c r="J3" s="4">
-        <v>95679515934153</v>
-      </c>
-      <c r="K3" s="4">
-        <v>4308204442004.65</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
       <c r="M3" s="4">
-        <v>3402</v>
+        <v>3148</v>
       </c>
       <c r="N3" s="4">
-        <v>3772969980932.797</v>
+        <v>3625443648632.797</v>
       </c>
       <c r="O3" s="4">
-        <v>117057845167.0332</v>
+        <v>109739235167.0332</v>
       </c>
       <c r="P3" s="4">
         <v>0</v>
@@ -13451,15 +13439,111 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E4" s="4">
+        <v>470516</v>
+      </c>
+      <c r="F4" s="4">
+        <v>99304959582785.8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4417943677171.684</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>467368</v>
+      </c>
+      <c r="J4" s="4">
+        <v>95679515934153</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4308204442004.65</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:21">
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E5" s="6">
+        <f>E3-E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <f>F3-F4</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <f>G3-G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <f>H3-H4</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f>I3-I4</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <f>J3-J4</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <f>K3-K4</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <f>L3-L4</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <f>M3-M4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <f>N3-N4</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <f>O3-O4</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <f>P3-P4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:21">
       <c r="D6" s="9" t="s">
         <v>488</v>
+      </c>
+      <c r="E6" s="4">
+        <v>470516</v>
+      </c>
+      <c r="F6" s="4">
+        <v>99304959582785.8</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4417943677171.684</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>467368</v>
+      </c>
+      <c r="J6" s="4">
+        <v>95679515934153</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4308204442004.65</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:21">
